--- a/predictions/confirmed/c3_train_predictions.xlsx
+++ b/predictions/confirmed/c3_train_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\predictions\confirmed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\confirmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5608,7 +5608,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7066,7 +7065,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8184,7 +8183,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10797,16 +10796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>422</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10827,16 +10826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>423</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15706,8 +15705,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="C442" sqref="C442"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="H417" sqref="H417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20277,15 +20276,15 @@
         <v>44271</v>
       </c>
       <c r="C378" s="3">
-        <f>_xlfn.FORECAST.ETS(A378,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" ref="C378:C407" si="6">_xlfn.FORECAST.ETS(A378,$B$2:$B$377,$A$2:$A$377,7,1)</f>
         <v>9.9531602255071938</v>
       </c>
       <c r="D378" s="4">
-        <f>C378-_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" ref="D378:D407" si="7">C378-_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
         <v>9.4675799670538137</v>
       </c>
       <c r="E378" s="4">
-        <f>C378+_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" ref="E378:E407" si="8">C378+_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
         <v>10.438740483960574</v>
       </c>
       <c r="G378">
@@ -20306,27 +20305,27 @@
         <v>44272</v>
       </c>
       <c r="C379" s="3">
-        <f>_xlfn.FORECAST.ETS(A379,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.414975381015752</v>
       </c>
       <c r="D379" s="4">
-        <f>C379-_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.7825806710798755</v>
       </c>
       <c r="E379" s="4">
-        <f>C379+_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.047370090951629</v>
       </c>
       <c r="G379">
-        <f t="shared" ref="G379:G407" si="6">EXP(C379)-1</f>
+        <f t="shared" ref="G379:G407" si="9">EXP(C379)-1</f>
         <v>33354.414133986029</v>
       </c>
       <c r="H379" s="7">
-        <f>EXP(D379)-1</f>
+        <f t="shared" ref="H379:H407" si="10">EXP(D379)-1</f>
         <v>17721.329392529024</v>
       </c>
       <c r="I379" s="7">
-        <f t="shared" ref="I379:I407" si="7">EXP(E379)-1</f>
+        <f t="shared" ref="I379:I407" si="11">EXP(E379)-1</f>
         <v>62777.6352125208</v>
       </c>
     </row>
@@ -20335,27 +20334,27 @@
         <v>44273</v>
       </c>
       <c r="C380" s="3">
-        <f>_xlfn.FORECAST.ETS(A380,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.313224068574625</v>
       </c>
       <c r="D380" s="4">
-        <f>C380-_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.5619241028952615</v>
       </c>
       <c r="E380" s="4">
-        <f>C380+_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.064524034253989</v>
       </c>
       <c r="G380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30127.416301869642</v>
       </c>
       <c r="H380" s="7">
-        <f>EXP(D380)-1</f>
+        <f t="shared" si="10"/>
         <v>14212.167503412802</v>
       </c>
       <c r="I380" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>63863.825953877371</v>
       </c>
     </row>
@@ -20364,27 +20363,27 @@
         <v>44274</v>
       </c>
       <c r="C381" s="3">
-        <f>_xlfn.FORECAST.ETS(A381,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.136117043137853</v>
       </c>
       <c r="D381" s="4">
-        <f>C381-_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.2820828712215153</v>
       </c>
       <c r="E381" s="4">
-        <f>C381+_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>10.99015121505419</v>
       </c>
       <c r="G381">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25237.276835247365</v>
       </c>
       <c r="H381" s="7">
-        <f>EXP(D381)-1</f>
+        <f t="shared" si="10"/>
         <v>10742.786551270437</v>
       </c>
       <c r="I381" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>59286.348512826029</v>
       </c>
     </row>
@@ -20393,27 +20392,27 @@
         <v>44275</v>
       </c>
       <c r="C382" s="3">
-        <f>_xlfn.FORECAST.ETS(A382,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.073810885747017</v>
       </c>
       <c r="D382" s="4">
-        <f>C382-_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.1279294313119017</v>
       </c>
       <c r="E382" s="4">
-        <f>C382+_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.019692340182132</v>
       </c>
       <c r="G382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23712.763234179503</v>
       </c>
       <c r="H382" s="7">
-        <f>EXP(D382)-1</f>
+        <f t="shared" si="10"/>
         <v>9207.9344836362889</v>
       </c>
       <c r="I382" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>61063.889507681015</v>
       </c>
     </row>
@@ -20422,27 +20421,27 @@
         <v>44276</v>
       </c>
       <c r="C383" s="3">
-        <f>_xlfn.FORECAST.ETS(A383,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.8665441752402483</v>
       </c>
       <c r="D383" s="4">
-        <f>C383-_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.8367848892240559</v>
       </c>
       <c r="E383" s="4">
-        <f>C383+_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>10.896303461256441</v>
       </c>
       <c r="G383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19273.614056851959</v>
       </c>
       <c r="H383" s="7">
-        <f>EXP(D383)-1</f>
+        <f t="shared" si="10"/>
         <v>6881.8279741309816</v>
       </c>
       <c r="I383" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>53975.46845699376</v>
       </c>
     </row>
@@ -20451,27 +20450,27 @@
         <v>44277</v>
       </c>
       <c r="C384" s="3">
-        <f>_xlfn.FORECAST.ETS(A384,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.4015717686770017</v>
       </c>
       <c r="D384" s="4">
-        <f>C384-_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.2940916459415774</v>
       </c>
       <c r="E384" s="4">
-        <f>C384+_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>10.509051891412426</v>
       </c>
       <c r="G384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12106.395808141686</v>
       </c>
       <c r="H384" s="7">
-        <f>EXP(D384)-1</f>
+        <f t="shared" si="10"/>
         <v>3999.1680268872296</v>
       </c>
       <c r="I384" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>36644.718947230474</v>
       </c>
     </row>
@@ -20480,27 +20479,27 @@
         <v>44278</v>
       </c>
       <c r="C385" s="3">
-        <f>_xlfn.FORECAST.ETS(A385,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.058489193207309</v>
       </c>
       <c r="D385" s="4">
-        <f>C385-_xlfn.FORECAST.ETS.CONFINT(A385,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.863634750732313</v>
       </c>
       <c r="E385" s="4">
-        <f>C385+_xlfn.FORECAST.ETS.CONFINT(A385,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.253343635682306</v>
       </c>
       <c r="G385">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23352.197536989264</v>
       </c>
       <c r="H385" s="7">
-        <f>EXP(D385)-1</f>
+        <f t="shared" si="10"/>
         <v>7069.1342735958278</v>
       </c>
       <c r="I385" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>77136.40844192887</v>
       </c>
     </row>
@@ -20509,27 +20508,27 @@
         <v>44279</v>
       </c>
       <c r="C386" s="3">
-        <f>_xlfn.FORECAST.ETS(A386,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.520304348715868</v>
       </c>
       <c r="D386" s="4">
-        <f>C386-_xlfn.FORECAST.ETS.CONFINT(A386,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.2575384415900626</v>
       </c>
       <c r="E386" s="4">
-        <f>C386+_xlfn.FORECAST.ETS.CONFINT(A386,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.783070255841674</v>
       </c>
       <c r="G386">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37059.402061544686</v>
       </c>
       <c r="H386" s="7">
-        <f>EXP(D386)-1</f>
+        <f t="shared" si="10"/>
         <v>10482.296307623876</v>
       </c>
       <c r="I386" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>131014.41353596009</v>
       </c>
     </row>
@@ -20538,27 +20537,27 @@
         <v>44280</v>
       </c>
       <c r="C387" s="3">
-        <f>_xlfn.FORECAST.ETS(A387,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.418553036274741</v>
       </c>
       <c r="D387" s="4">
-        <f>C387-_xlfn.FORECAST.ETS.CONFINT(A387,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>9.0911965196407944</v>
       </c>
       <c r="E387" s="4">
-        <f>C387+_xlfn.FORECAST.ETS.CONFINT(A387,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.745909552908687</v>
       </c>
       <c r="G387">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33473.96202984346</v>
       </c>
       <c r="H387" s="7">
-        <f>EXP(D387)-1</f>
+        <f t="shared" si="10"/>
         <v>8875.8009672191693</v>
       </c>
       <c r="I387" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>126235.13923952862</v>
       </c>
     </row>
@@ -20567,27 +20566,27 @@
         <v>44281</v>
       </c>
       <c r="C388" s="3">
-        <f>_xlfn.FORECAST.ETS(A388,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.24144601083797</v>
       </c>
       <c r="D388" s="4">
-        <f>C388-_xlfn.FORECAST.ETS.CONFINT(A388,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.8523562482838543</v>
       </c>
       <c r="E388" s="4">
-        <f>C388+_xlfn.FORECAST.ETS.CONFINT(A388,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.630535773392086</v>
       </c>
       <c r="G388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28040.64514635165</v>
       </c>
       <c r="H388" s="7">
-        <f>EXP(D388)-1</f>
+        <f t="shared" si="10"/>
         <v>6989.8417379385301</v>
       </c>
       <c r="I388" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>112479.569864221</v>
       </c>
     </row>
@@ -20596,27 +20595,27 @@
         <v>44282</v>
       </c>
       <c r="C389" s="3">
-        <f>_xlfn.FORECAST.ETS(A389,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.179139853447133</v>
       </c>
       <c r="D389" s="4">
-        <f>C389-_xlfn.FORECAST.ETS.CONFINT(A389,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.730808625336044</v>
       </c>
       <c r="E389" s="4">
-        <f>C389+_xlfn.FORECAST.ETS.CONFINT(A389,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.627471081558221</v>
       </c>
       <c r="G389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26346.794583533941</v>
       </c>
       <c r="H389" s="7">
-        <f>EXP(D389)-1</f>
+        <f t="shared" si="10"/>
         <v>6189.732070565673</v>
       </c>
       <c r="I389" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>112135.37926873937</v>
       </c>
     </row>
@@ -20625,27 +20624,27 @@
         <v>44283</v>
       </c>
       <c r="C390" s="3">
-        <f>_xlfn.FORECAST.ETS(A390,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.971873142940364</v>
       </c>
       <c r="D390" s="4">
-        <f>C390-_xlfn.FORECAST.ETS.CONFINT(A390,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.4664978649799636</v>
       </c>
       <c r="E390" s="4">
-        <f>C390+_xlfn.FORECAST.ETS.CONFINT(A390,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.477248420900764</v>
       </c>
       <c r="G390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21414.562213038291</v>
       </c>
       <c r="H390" s="7">
-        <f>EXP(D390)-1</f>
+        <f t="shared" si="10"/>
         <v>4751.8411971563264</v>
       </c>
       <c r="I390" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>96494.188009840174</v>
       </c>
     </row>
@@ -20654,27 +20653,27 @@
         <v>44284</v>
       </c>
       <c r="C391" s="3">
-        <f>_xlfn.FORECAST.ETS(A391,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.5069007363771174</v>
       </c>
       <c r="D391" s="4">
-        <f>C391-_xlfn.FORECAST.ETS.CONFINT(A391,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>7.946437669359268</v>
       </c>
       <c r="E391" s="4">
-        <f>C391+_xlfn.FORECAST.ETS.CONFINT(A391,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.067363803394967</v>
       </c>
       <c r="G391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13451.237611728631</v>
       </c>
       <c r="H391" s="7">
-        <f>EXP(D391)-1</f>
+        <f t="shared" si="10"/>
         <v>2824.4916656049068</v>
       </c>
       <c r="I391" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>64045.445071946197</v>
       </c>
     </row>
@@ -20683,27 +20682,27 @@
         <v>44285</v>
       </c>
       <c r="C392" s="3">
-        <f>_xlfn.FORECAST.ETS(A392,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.163818160907425</v>
       </c>
       <c r="D392" s="4">
-        <f>C392-_xlfn.FORECAST.ETS.CONFINT(A392,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.5392349811246699</v>
       </c>
       <c r="E392" s="4">
-        <f>C392+_xlfn.FORECAST.ETS.CONFINT(A392,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.78840134069018</v>
       </c>
       <c r="G392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25946.17866991361</v>
       </c>
       <c r="H392" s="7">
-        <f>EXP(D392)-1</f>
+        <f t="shared" si="10"/>
         <v>5110.4325231638177</v>
       </c>
       <c r="I392" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>131714.73289432671</v>
       </c>
     </row>
@@ -20712,27 +20711,27 @@
         <v>44286</v>
       </c>
       <c r="C393" s="3">
-        <f>_xlfn.FORECAST.ETS(A393,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.625633316415984</v>
       </c>
       <c r="D393" s="4">
-        <f>C393-_xlfn.FORECAST.ETS.CONFINT(A393,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.949638111018837</v>
       </c>
       <c r="E393" s="4">
-        <f>C393+_xlfn.FORECAST.ETS.CONFINT(A393,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.30162852181313</v>
       </c>
       <c r="G393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41175.92544443348</v>
       </c>
       <c r="H393" s="7">
-        <f>EXP(D393)-1</f>
+        <f t="shared" si="10"/>
         <v>7704.1029646418738</v>
       </c>
       <c r="I393" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>220053.05986618644</v>
       </c>
     </row>
@@ -20741,27 +20740,27 @@
         <v>44287</v>
       </c>
       <c r="C394" s="3">
-        <f>_xlfn.FORECAST.ETS(A394,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.523882003974856</v>
       </c>
       <c r="D394" s="4">
-        <f>C394-_xlfn.FORECAST.ETS.CONFINT(A394,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.7978896405547999</v>
       </c>
       <c r="E394" s="4">
-        <f>C394+_xlfn.FORECAST.ETS.CONFINT(A394,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.249874367394913</v>
       </c>
       <c r="G394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37192.228866461308</v>
       </c>
       <c r="H394" s="7">
-        <f>EXP(D394)-1</f>
+        <f t="shared" si="10"/>
         <v>6619.2581295816117</v>
       </c>
       <c r="I394" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>208954.03565514219</v>
       </c>
     </row>
@@ -20770,27 +20769,27 @@
         <v>44288</v>
       </c>
       <c r="C395" s="3">
-        <f>_xlfn.FORECAST.ETS(A395,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.346774978538086</v>
       </c>
       <c r="D395" s="4">
-        <f>C395-_xlfn.FORECAST.ETS.CONFINT(A395,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.5720806077181972</v>
       </c>
       <c r="E395" s="4">
-        <f>C395+_xlfn.FORECAST.ETS.CONFINT(A395,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.121469349357975</v>
       </c>
       <c r="G395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31155.400559634272</v>
       </c>
       <c r="H395" s="7">
-        <f>EXP(D395)-1</f>
+        <f t="shared" si="10"/>
         <v>5281.1083606079319</v>
       </c>
       <c r="I395" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>183774.34680501249</v>
       </c>
     </row>
@@ -20799,27 +20798,27 @@
         <v>44289</v>
       </c>
       <c r="C396" s="3">
-        <f>_xlfn.FORECAST.ETS(A396,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.28446882114725</v>
       </c>
       <c r="D396" s="4">
-        <f>C396-_xlfn.FORECAST.ETS.CONFINT(A396,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.4622636148664228</v>
       </c>
       <c r="E396" s="4">
-        <f>C396+_xlfn.FORECAST.ETS.CONFINT(A396,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.106674027428078</v>
       </c>
       <c r="G396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29273.403752817994</v>
       </c>
       <c r="H396" s="7">
-        <f>EXP(D396)-1</f>
+        <f t="shared" si="10"/>
         <v>4731.7590252511791</v>
       </c>
       <c r="I396" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>181075.3469068704</v>
       </c>
     </row>
@@ -20828,27 +20827,27 @@
         <v>44290</v>
       </c>
       <c r="C397" s="3">
-        <f>_xlfn.FORECAST.ETS(A397,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.07720211064048</v>
       </c>
       <c r="D397" s="4">
-        <f>C397-_xlfn.FORECAST.ETS.CONFINT(A397,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.2085862533567582</v>
       </c>
       <c r="E397" s="4">
-        <f>C397+_xlfn.FORECAST.ETS.CONFINT(A397,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.945817967924201</v>
       </c>
       <c r="G397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23793.318451604784</v>
       </c>
       <c r="H397" s="7">
-        <f>EXP(D397)-1</f>
+        <f t="shared" si="10"/>
         <v>3671.3470263323529</v>
       </c>
       <c r="I397" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>154170.04824699121</v>
       </c>
     </row>
@@ -20857,27 +20856,27 @@
         <v>44291</v>
       </c>
       <c r="C398" s="3">
-        <f>_xlfn.FORECAST.ETS(A398,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.6122297040772331</v>
       </c>
       <c r="D398" s="4">
-        <f>C398-_xlfn.FORECAST.ETS.CONFINT(A398,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>7.6982232238682826</v>
       </c>
       <c r="E398" s="4">
-        <f>C398+_xlfn.FORECAST.ETS.CONFINT(A398,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.526236184286184</v>
       </c>
       <c r="G398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14945.459141999558</v>
       </c>
       <c r="H398" s="7">
-        <f>EXP(D398)-1</f>
+        <f t="shared" si="10"/>
         <v>2203.4277356249081</v>
       </c>
       <c r="I398" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>101338.9701306761</v>
       </c>
     </row>
@@ -20886,27 +20885,27 @@
         <v>44292</v>
       </c>
       <c r="C399" s="3">
-        <f>_xlfn.FORECAST.ETS(A399,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.269147128607541</v>
       </c>
       <c r="D399" s="4">
-        <f>C399-_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.3017300284255153</v>
       </c>
       <c r="E399" s="4">
-        <f>C399+_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.236564228789566</v>
       </c>
       <c r="G399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28828.289002589285</v>
       </c>
       <c r="H399" s="7">
-        <f>EXP(D399)-1</f>
+        <f t="shared" si="10"/>
         <v>4029.8398326400784</v>
       </c>
       <c r="I399" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>206191.24253583199</v>
       </c>
     </row>
@@ -20915,27 +20914,27 @@
         <v>44293</v>
       </c>
       <c r="C400" s="3">
-        <f>_xlfn.FORECAST.ETS(A400,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.730962284116099</v>
       </c>
       <c r="D400" s="4">
-        <f>C400-_xlfn.FORECAST.ETS.CONFINT(A400,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.7201834805684921</v>
       </c>
       <c r="E400" s="4">
-        <f>C400+_xlfn.FORECAST.ETS.CONFINT(A400,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.741741087663707</v>
       </c>
       <c r="G400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45749.696018913164</v>
       </c>
       <c r="H400" s="7">
-        <f>EXP(D400)-1</f>
+        <f t="shared" si="10"/>
         <v>6124.3028590652266</v>
       </c>
       <c r="I400" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>341716.99082836299</v>
       </c>
     </row>
@@ -20944,27 +20943,27 @@
         <v>44294</v>
       </c>
       <c r="C401" s="3">
-        <f>_xlfn.FORECAST.ETS(A401,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.629210971674972</v>
       </c>
       <c r="D401" s="4">
-        <f>C401-_xlfn.FORECAST.ETS.CONFINT(A401,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.5758877291903364</v>
       </c>
       <c r="E401" s="4">
-        <f>C401+_xlfn.FORECAST.ETS.CONFINT(A401,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.682534214159608</v>
       </c>
       <c r="G401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41323.506127287146</v>
       </c>
       <c r="H401" s="7">
-        <f>EXP(D401)-1</f>
+        <f t="shared" si="10"/>
         <v>5301.2563172893588</v>
       </c>
       <c r="I401" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>322072.22778715042</v>
       </c>
     </row>
@@ -20973,27 +20972,27 @@
         <v>44295</v>
       </c>
       <c r="C402" s="3">
-        <f>_xlfn.FORECAST.ETS(A402,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.452103946238202</v>
       </c>
       <c r="D402" s="4">
-        <f>C402-_xlfn.FORECAST.ETS.CONFINT(A402,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.3570036284350575</v>
       </c>
       <c r="E402" s="4">
-        <f>C402+_xlfn.FORECAST.ETS.CONFINT(A402,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.547204264041346</v>
       </c>
       <c r="G402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34616.130727034899</v>
       </c>
       <c r="H402" s="7">
-        <f>EXP(D402)-1</f>
+        <f t="shared" si="10"/>
         <v>4258.9113467936686</v>
       </c>
       <c r="I402" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>281306.67103277618</v>
       </c>
     </row>
@@ -21002,27 +21001,27 @@
         <v>44296</v>
       </c>
       <c r="C403" s="3">
-        <f>_xlfn.FORECAST.ETS(A403,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.389797788847366</v>
       </c>
       <c r="D403" s="4">
-        <f>C403-_xlfn.FORECAST.ETS.CONFINT(A403,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.2536426261856324</v>
       </c>
       <c r="E403" s="4">
-        <f>C403+_xlfn.FORECAST.ETS.CONFINT(A403,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.525952951509099</v>
       </c>
       <c r="G403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32525.089133038073</v>
       </c>
       <c r="H403" s="7">
-        <f>EXP(D403)-1</f>
+        <f t="shared" si="10"/>
         <v>3840.593856205654</v>
       </c>
       <c r="I403" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>275391.58804814733</v>
       </c>
     </row>
@@ -21031,27 +21030,27 @@
         <v>44297</v>
       </c>
       <c r="C404" s="3">
-        <f>_xlfn.FORECAST.ETS(A404,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.182531078340597</v>
       </c>
       <c r="D404" s="4">
-        <f>C404-_xlfn.FORECAST.ETS.CONFINT(A404,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.0060023232751796</v>
       </c>
       <c r="E404" s="4">
-        <f>C404+_xlfn.FORECAST.ETS.CONFINT(A404,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.359059833406015</v>
       </c>
       <c r="G404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26436.297556992631</v>
       </c>
       <c r="H404" s="7">
-        <f>EXP(D404)-1</f>
+        <f t="shared" si="10"/>
         <v>2997.9044669556188</v>
       </c>
       <c r="I404" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>233061.00975001318</v>
       </c>
     </row>
@@ -21060,27 +21059,27 @@
         <v>44298</v>
       </c>
       <c r="C405" s="3">
-        <f>_xlfn.FORECAST.ETS(A405,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>9.7175586717773488</v>
       </c>
       <c r="D405" s="4">
-        <f>C405-_xlfn.FORECAST.ETS.CONFINT(A405,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>7.501300238918958</v>
       </c>
       <c r="E405" s="4">
-        <f>C405+_xlfn.FORECAST.ETS.CONFINT(A405,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>11.93381710463574</v>
       </c>
       <c r="G405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16605.652910196059</v>
       </c>
       <c r="H405" s="7">
-        <f>EXP(D405)-1</f>
+        <f t="shared" si="10"/>
         <v>1809.3948305905512</v>
       </c>
       <c r="I405" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>152330.92020867812</v>
       </c>
     </row>
@@ -21089,27 +21088,27 @@
         <v>44299</v>
       </c>
       <c r="C406" s="3">
-        <f>_xlfn.FORECAST.ETS(A406,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.374476096307657</v>
       </c>
       <c r="D406" s="4">
-        <f>C406-_xlfn.FORECAST.ETS.CONFINT(A406,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.1112444458649566</v>
       </c>
       <c r="E406" s="4">
-        <f>C406+_xlfn.FORECAST.ETS.CONFINT(A406,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>12.637707746750356</v>
       </c>
       <c r="G406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32030.532790828187</v>
       </c>
       <c r="H406" s="7">
-        <f>EXP(D406)-1</f>
+        <f t="shared" si="10"/>
         <v>3330.721598302066</v>
       </c>
       <c r="I406" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>307953.63025865908</v>
       </c>
     </row>
@@ -21118,27 +21117,27 @@
         <v>44300</v>
       </c>
       <c r="C407" s="3">
-        <f>_xlfn.FORECAST.ETS(A407,$B$2:$B$377,$A$2:$A$377,7,1)</f>
+        <f t="shared" si="6"/>
         <v>10.836291251816215</v>
       </c>
       <c r="D407" s="4">
-        <f>C407-_xlfn.FORECAST.ETS.CONFINT(A407,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>8.5346496872492708</v>
       </c>
       <c r="E407" s="4">
-        <f>C407+_xlfn.FORECAST.ETS.CONFINT(A407,$B$2:$B$377,$A$2:$A$377,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>13.137932816383159</v>
       </c>
       <c r="G407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50831.503000729914</v>
       </c>
       <c r="H407" s="7">
-        <f>EXP(D407)-1</f>
+        <f t="shared" si="10"/>
         <v>5087.0487546163313</v>
       </c>
       <c r="I407" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>507844.63708726875</v>
       </c>
     </row>
@@ -21173,7 +21172,7 @@
         <v>25052</v>
       </c>
       <c r="C412">
-        <f t="shared" ref="C412:C440" si="8">G379</f>
+        <f t="shared" ref="C412:C440" si="12">G379</f>
         <v>33354.414133986029</v>
       </c>
     </row>
@@ -21185,7 +21184,7 @@
         <v>27278</v>
       </c>
       <c r="C413">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30127.416301869642</v>
       </c>
     </row>
@@ -21197,7 +21196,7 @@
         <v>25998</v>
       </c>
       <c r="C414">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25237.276835247365</v>
       </c>
     </row>
@@ -21209,7 +21208,7 @@
         <v>26405</v>
       </c>
       <c r="C415">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>23712.763234179503</v>
       </c>
     </row>
@@ -21221,7 +21220,7 @@
         <v>21849</v>
       </c>
       <c r="C416">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19273.614056851959</v>
       </c>
     </row>
@@ -21233,7 +21232,7 @@
         <v>14578</v>
       </c>
       <c r="C417">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12106.395808141686</v>
       </c>
     </row>
@@ -21245,7 +21244,7 @@
         <v>16741</v>
       </c>
       <c r="C418">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>23352.197536989264</v>
       </c>
     </row>
@@ -21257,7 +21256,7 @@
         <v>29978</v>
       </c>
       <c r="C419">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>37059.402061544686</v>
       </c>
     </row>
@@ -21269,7 +21268,7 @@
         <v>34151</v>
       </c>
       <c r="C420">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>33473.96202984346</v>
       </c>
     </row>
@@ -21281,7 +21280,7 @@
         <v>35143</v>
       </c>
       <c r="C421">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>28040.64514635165</v>
       </c>
     </row>
@@ -21293,7 +21292,7 @@
         <v>31757</v>
       </c>
       <c r="C422">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>26346.794583533941</v>
       </c>
     </row>
@@ -21305,7 +21304,7 @@
         <v>29253</v>
       </c>
       <c r="C423">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21414.562213038291</v>
       </c>
     </row>
@@ -21317,7 +21316,7 @@
         <v>16965</v>
       </c>
       <c r="C424">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13451.237611728631</v>
       </c>
     </row>
@@ -21329,7 +21328,7 @@
         <v>20870</v>
       </c>
       <c r="C425">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25946.17866991361</v>
       </c>
     </row>
@@ -21341,7 +21340,7 @@
         <v>32874</v>
       </c>
       <c r="C426">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>41175.92544443348</v>
       </c>
     </row>
@@ -21353,7 +21352,7 @@
         <v>35251</v>
       </c>
       <c r="C427">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>37192.228866461308</v>
       </c>
     </row>
@@ -21365,7 +21364,7 @@
         <v>30546</v>
       </c>
       <c r="C428">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31155.400559634272</v>
       </c>
     </row>
@@ -21377,7 +21376,7 @@
         <v>28073</v>
       </c>
       <c r="C429">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>29273.403752817994</v>
       </c>
     </row>
@@ -21389,7 +21388,7 @@
         <v>22947</v>
       </c>
       <c r="C430">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>23793.318451604784</v>
       </c>
     </row>
@@ -21401,7 +21400,7 @@
         <v>9902</v>
       </c>
       <c r="C431">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14945.459141999558</v>
       </c>
     </row>
@@ -21413,7 +21412,7 @@
         <v>8245</v>
       </c>
       <c r="C432">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>28828.289002589285</v>
       </c>
     </row>
@@ -21425,7 +21424,7 @@
         <v>14910</v>
       </c>
       <c r="C433">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45749.696018913164</v>
       </c>
     </row>
@@ -21437,7 +21436,7 @@
         <v>27887</v>
       </c>
       <c r="C434">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>41323.506127287146</v>
       </c>
     </row>
@@ -21449,7 +21448,7 @@
         <v>28487</v>
       </c>
       <c r="C435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>34616.130727034899</v>
       </c>
     </row>
@@ -21461,7 +21460,7 @@
         <v>24856</v>
       </c>
       <c r="C436">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>32525.089133038073</v>
       </c>
     </row>
@@ -21473,7 +21472,7 @@
         <v>21703</v>
       </c>
       <c r="C437">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>26436.297556992631</v>
       </c>
     </row>
@@ -21485,7 +21484,7 @@
         <v>12013</v>
       </c>
       <c r="C438">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16605.652910196059</v>
       </c>
     </row>
@@ -21497,7 +21496,7 @@
         <v>13227</v>
       </c>
       <c r="C439">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>32030.532790828187</v>
       </c>
     </row>
@@ -21509,7 +21508,7 @@
         <v>21283</v>
       </c>
       <c r="C440">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50831.503000729914</v>
       </c>
     </row>
